--- a/excel/anggota/import_admin.xlsx
+++ b/excel/anggota/import_admin.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\sipp\excel\anggota\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D04AEDF-AEBF-4CEC-BED9-6A02E605A5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
     <sheet name="petunjuk" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>id_kwaran</t>
   </si>
@@ -172,12 +178,15 @@
   </si>
   <si>
     <t>KONGHUCU</t>
+  </si>
+  <si>
+    <t>id_pangkalan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,13 +258,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -304,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,9 +349,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,6 +401,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,86 +593,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -636,7 +685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -847,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
